--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17070" windowHeight="4020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17070" windowHeight="3405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidRegister" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="ValidBookFlight" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:P12"/>
+  <oleSize ref="A1:P9"/>
 </workbook>
 </file>
 
